--- a/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Sem SPAD 1 Drones/vel05/field_16ha_100ha_10%_6m_0_LM/Planilha_Unificada.xlsx
@@ -4027,28 +4027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1429.680382396326</v>
+        <v>1821.051417146212</v>
       </c>
       <c r="AB2" t="n">
-        <v>1956.151772241652</v>
+        <v>2491.642888057922</v>
       </c>
       <c r="AC2" t="n">
-        <v>1769.459392575163</v>
+        <v>2253.84398786443</v>
       </c>
       <c r="AD2" t="n">
-        <v>1429680.382396325</v>
+        <v>1821051.417146212</v>
       </c>
       <c r="AE2" t="n">
-        <v>1956151.772241652</v>
+        <v>2491642.888057922</v>
       </c>
       <c r="AF2" t="n">
         <v>2.029274996607903e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>78</v>
+        <v>77.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1769459.392575163</v>
+        <v>2253843.98786443</v>
       </c>
     </row>
     <row r="3">
@@ -4133,28 +4133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1050.501801130225</v>
+        <v>1353.810309865758</v>
       </c>
       <c r="AB3" t="n">
-        <v>1437.342909174984</v>
+        <v>1852.342991853959</v>
       </c>
       <c r="AC3" t="n">
-        <v>1300.164919246766</v>
+        <v>1675.557976491134</v>
       </c>
       <c r="AD3" t="n">
-        <v>1050501.801130225</v>
+        <v>1353810.309865758</v>
       </c>
       <c r="AE3" t="n">
-        <v>1437342.909174984</v>
+        <v>1852342.991853959</v>
       </c>
       <c r="AF3" t="n">
         <v>2.607380306006864e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>61</v>
+        <v>60.20833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1300164.919246766</v>
+        <v>1675557.976491134</v>
       </c>
     </row>
     <row r="4">
@@ -4239,28 +4239,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>945.9992572843549</v>
+        <v>1219.976367627623</v>
       </c>
       <c r="AB4" t="n">
-        <v>1294.35791835821</v>
+        <v>1669.225487746919</v>
       </c>
       <c r="AC4" t="n">
-        <v>1170.82621527285</v>
+        <v>1509.916949969039</v>
       </c>
       <c r="AD4" t="n">
-        <v>945999.2572843549</v>
+        <v>1219976.367627623</v>
       </c>
       <c r="AE4" t="n">
-        <v>1294357.91835821</v>
+        <v>1669225.487746919</v>
       </c>
       <c r="AF4" t="n">
         <v>2.833089687126455e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>56</v>
+        <v>55.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1170826.21527285</v>
+        <v>1509916.949969039</v>
       </c>
     </row>
     <row r="5">
@@ -4345,28 +4345,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>900.5343771081434</v>
+        <v>1164.722966181064</v>
       </c>
       <c r="AB5" t="n">
-        <v>1232.150863532164</v>
+        <v>1593.625346279702</v>
       </c>
       <c r="AC5" t="n">
-        <v>1114.556114451252</v>
+        <v>1441.531979897988</v>
       </c>
       <c r="AD5" t="n">
-        <v>900534.3771081434</v>
+        <v>1164722.966181064</v>
       </c>
       <c r="AE5" t="n">
-        <v>1232150.863532164</v>
+        <v>1593625.346279702</v>
       </c>
       <c r="AF5" t="n">
         <v>2.948023676390822e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>54</v>
+        <v>53.22916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1114556.114451252</v>
+        <v>1441531.979897988</v>
       </c>
     </row>
     <row r="6">
@@ -4451,28 +4451,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>864.2452855544065</v>
+        <v>1128.46702901625</v>
       </c>
       <c r="AB6" t="n">
-        <v>1182.498527506612</v>
+        <v>1544.018373551744</v>
       </c>
       <c r="AC6" t="n">
-        <v>1069.642527688488</v>
+        <v>1396.659427023362</v>
       </c>
       <c r="AD6" t="n">
-        <v>864245.2855544065</v>
+        <v>1128467.02901625</v>
       </c>
       <c r="AE6" t="n">
-        <v>1182498.527506612</v>
+        <v>1544018.373551744</v>
       </c>
       <c r="AF6" t="n">
         <v>3.022456543061768e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.92708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>1069642.527688488</v>
+        <v>1396659.427023362</v>
       </c>
     </row>
     <row r="7">
@@ -4557,28 +4557,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>852.0645934087264</v>
+        <v>1106.464661211298</v>
       </c>
       <c r="AB7" t="n">
-        <v>1165.832367138682</v>
+        <v>1513.913763245048</v>
       </c>
       <c r="AC7" t="n">
-        <v>1054.566962274969</v>
+        <v>1369.427958472251</v>
       </c>
       <c r="AD7" t="n">
-        <v>852064.5934087264</v>
+        <v>1106464.661211298</v>
       </c>
       <c r="AE7" t="n">
-        <v>1165832.367138681</v>
+        <v>1513913.763245048</v>
       </c>
       <c r="AF7" t="n">
         <v>3.069828391809431e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>52</v>
+        <v>51.11979166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1054566.962274969</v>
+        <v>1369427.958472251</v>
       </c>
     </row>
     <row r="8">
@@ -4663,28 +4663,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>832.2495815132457</v>
+        <v>1086.615483897037</v>
       </c>
       <c r="AB8" t="n">
-        <v>1138.720593686656</v>
+        <v>1486.755243159775</v>
       </c>
       <c r="AC8" t="n">
-        <v>1030.042698429592</v>
+        <v>1344.861409426695</v>
       </c>
       <c r="AD8" t="n">
-        <v>832249.5815132457</v>
+        <v>1086615.483897037</v>
       </c>
       <c r="AE8" t="n">
-        <v>1138720.593686656</v>
+        <v>1486755.243159775</v>
       </c>
       <c r="AF8" t="n">
         <v>3.108461159045121e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.49479166666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>1030042.698429592</v>
+        <v>1344861.409426695</v>
       </c>
     </row>
     <row r="9">
@@ -4769,28 +4769,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>812.7235650932176</v>
+        <v>1067.156787284713</v>
       </c>
       <c r="AB9" t="n">
-        <v>1112.004236593726</v>
+        <v>1460.130995997686</v>
       </c>
       <c r="AC9" t="n">
-        <v>1005.876112960968</v>
+        <v>1320.77814304639</v>
       </c>
       <c r="AD9" t="n">
-        <v>812723.5650932177</v>
+        <v>1067156.787284713</v>
       </c>
       <c r="AE9" t="n">
-        <v>1112004.236593726</v>
+        <v>1460130.995997686</v>
       </c>
       <c r="AF9" t="n">
         <v>3.142513442177983e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.94791666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>1005876.112960968</v>
+        <v>1320778.14304639</v>
       </c>
     </row>
     <row r="10">
@@ -4875,28 +4875,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>805.0587966217415</v>
+        <v>1059.492018813237</v>
       </c>
       <c r="AB10" t="n">
-        <v>1101.516962225332</v>
+        <v>1449.643721629293</v>
       </c>
       <c r="AC10" t="n">
-        <v>996.389729339312</v>
+        <v>1311.291759424734</v>
       </c>
       <c r="AD10" t="n">
-        <v>805058.7966217415</v>
+        <v>1059492.018813237</v>
       </c>
       <c r="AE10" t="n">
-        <v>1101516.962225332</v>
+        <v>1449643.721629293</v>
       </c>
       <c r="AF10" t="n">
         <v>3.165536401747458e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.58333333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>996389.7293393119</v>
+        <v>1311291.759424734</v>
       </c>
     </row>
     <row r="11">
@@ -4981,28 +4981,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>799.0459736372646</v>
+        <v>1043.657520169488</v>
       </c>
       <c r="AB11" t="n">
-        <v>1093.289952550943</v>
+        <v>1427.978262016138</v>
       </c>
       <c r="AC11" t="n">
-        <v>988.9478939215655</v>
+        <v>1291.694020869395</v>
       </c>
       <c r="AD11" t="n">
-        <v>799045.9736372647</v>
+        <v>1043657.520169488</v>
       </c>
       <c r="AE11" t="n">
-        <v>1093289.952550943</v>
+        <v>1427978.262016138</v>
       </c>
       <c r="AF11" t="n">
         <v>3.173672787982743e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>49.453125</v>
       </c>
       <c r="AH11" t="n">
-        <v>988947.8939215655</v>
+        <v>1291694.020869395</v>
       </c>
     </row>
     <row r="12">
@@ -5087,28 +5087,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>791.4343983926193</v>
+        <v>1036.045944924843</v>
       </c>
       <c r="AB12" t="n">
-        <v>1082.875459502219</v>
+        <v>1417.563768967414</v>
       </c>
       <c r="AC12" t="n">
-        <v>979.5273454725789</v>
+        <v>1282.273472420408</v>
       </c>
       <c r="AD12" t="n">
-        <v>791434.3983926193</v>
+        <v>1036045.944924843</v>
       </c>
       <c r="AE12" t="n">
-        <v>1082875.459502219</v>
+        <v>1417563.768967414</v>
       </c>
       <c r="AF12" t="n">
         <v>3.197780599050256e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>979527.3454725789</v>
+        <v>1282273.472420408</v>
       </c>
     </row>
     <row r="13">
@@ -5193,28 +5193,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>774.0767650258937</v>
+        <v>1028.475821798608</v>
       </c>
       <c r="AB13" t="n">
-        <v>1059.125979765126</v>
+        <v>1407.205992535838</v>
       </c>
       <c r="AC13" t="n">
-        <v>958.0444827489899</v>
+        <v>1272.904227634232</v>
       </c>
       <c r="AD13" t="n">
-        <v>774076.7650258937</v>
+        <v>1028475.821798608</v>
       </c>
       <c r="AE13" t="n">
-        <v>1059125.979765126</v>
+        <v>1407205.992535838</v>
       </c>
       <c r="AF13" t="n">
         <v>3.206097793868549e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.95833333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>958044.4827489899</v>
+        <v>1272904.227634232</v>
       </c>
     </row>
     <row r="14">
@@ -5299,28 +5299,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>771.4600905564013</v>
+        <v>1025.859147329116</v>
       </c>
       <c r="AB14" t="n">
-        <v>1055.545730316436</v>
+        <v>1403.625743087148</v>
       </c>
       <c r="AC14" t="n">
-        <v>954.8059272827713</v>
+        <v>1269.665672168013</v>
       </c>
       <c r="AD14" t="n">
-        <v>771460.0905564013</v>
+        <v>1025859.147329116</v>
       </c>
       <c r="AE14" t="n">
-        <v>1055545.730316435</v>
+        <v>1403625.743087148</v>
       </c>
       <c r="AF14" t="n">
         <v>3.212606902856777e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>49</v>
+        <v>48.85416666666666</v>
       </c>
       <c r="AH14" t="n">
-        <v>954805.9272827713</v>
+        <v>1269665.672168013</v>
       </c>
     </row>
     <row r="15">
@@ -5405,28 +5405,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>772.1995096849595</v>
+        <v>1016.878376024887</v>
       </c>
       <c r="AB15" t="n">
-        <v>1056.557436188999</v>
+        <v>1391.337855585035</v>
       </c>
       <c r="AC15" t="n">
-        <v>955.7210773667949</v>
+        <v>1258.550523402943</v>
       </c>
       <c r="AD15" t="n">
-        <v>772199.5096849594</v>
+        <v>1016878.376024887</v>
       </c>
       <c r="AE15" t="n">
-        <v>1056557.436188998</v>
+        <v>1391337.855585035</v>
       </c>
       <c r="AF15" t="n">
         <v>3.213932832465491e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>49</v>
+        <v>48.828125</v>
       </c>
       <c r="AH15" t="n">
-        <v>955721.0773667949</v>
+        <v>1258550.523402943</v>
       </c>
     </row>
   </sheetData>
@@ -5702,28 +5702,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1190.828913235232</v>
+        <v>1529.546648262532</v>
       </c>
       <c r="AB2" t="n">
-        <v>1629.344654752316</v>
+        <v>2092.7932029885</v>
       </c>
       <c r="AC2" t="n">
-        <v>1473.84228770234</v>
+        <v>1893.059956948984</v>
       </c>
       <c r="AD2" t="n">
-        <v>1190828.913235232</v>
+        <v>1529546.648262531</v>
       </c>
       <c r="AE2" t="n">
-        <v>1629344.654752316</v>
+        <v>2092793.2029885</v>
       </c>
       <c r="AF2" t="n">
         <v>2.479040484032414e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>70</v>
+        <v>69.27083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1473842.28770234</v>
+        <v>1893059.956948984</v>
       </c>
     </row>
     <row r="3">
@@ -5808,28 +5808,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>923.454820674005</v>
+        <v>1204.156580608359</v>
       </c>
       <c r="AB3" t="n">
-        <v>1263.511625597581</v>
+        <v>1647.580157227416</v>
       </c>
       <c r="AC3" t="n">
-        <v>1142.923849400251</v>
+        <v>1490.337419414904</v>
       </c>
       <c r="AD3" t="n">
-        <v>923454.820674005</v>
+        <v>1204156.58060836</v>
       </c>
       <c r="AE3" t="n">
-        <v>1263511.625597581</v>
+        <v>1647580.157227416</v>
       </c>
       <c r="AF3" t="n">
         <v>3.036349782036189e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>57</v>
+        <v>56.5625</v>
       </c>
       <c r="AH3" t="n">
-        <v>1142923.849400251</v>
+        <v>1490337.419414904</v>
       </c>
     </row>
     <row r="4">
@@ -5914,28 +5914,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>855.5888570016618</v>
+        <v>1116.862198828096</v>
       </c>
       <c r="AB4" t="n">
-        <v>1170.654420066072</v>
+        <v>1528.140132919336</v>
       </c>
       <c r="AC4" t="n">
-        <v>1058.928805238763</v>
+        <v>1382.296583391661</v>
       </c>
       <c r="AD4" t="n">
-        <v>855588.8570016618</v>
+        <v>1116862.198828096</v>
       </c>
       <c r="AE4" t="n">
-        <v>1170654.420066072</v>
+        <v>1528140.132919336</v>
       </c>
       <c r="AF4" t="n">
         <v>3.238342253907632e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.02083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1058928.805238763</v>
+        <v>1382296.583391661</v>
       </c>
     </row>
     <row r="5">
@@ -6020,28 +6020,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>816.385453563185</v>
+        <v>1067.978246239511</v>
       </c>
       <c r="AB5" t="n">
-        <v>1117.014593949453</v>
+        <v>1461.254952379852</v>
       </c>
       <c r="AC5" t="n">
-        <v>1010.408288842745</v>
+        <v>1321.794830608924</v>
       </c>
       <c r="AD5" t="n">
-        <v>816385.4535631851</v>
+        <v>1067978.246239511</v>
       </c>
       <c r="AE5" t="n">
-        <v>1117014.593949453</v>
+        <v>1461254.952379852</v>
       </c>
       <c r="AF5" t="n">
         <v>3.342998490557969e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.38020833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1010408.288842745</v>
+        <v>1321794.830608924</v>
       </c>
     </row>
     <row r="6">
@@ -6126,28 +6126,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>789.6983922081814</v>
+        <v>1031.64480115318</v>
       </c>
       <c r="AB6" t="n">
-        <v>1080.500179253483</v>
+        <v>1411.541929894265</v>
       </c>
       <c r="AC6" t="n">
-        <v>977.378758637056</v>
+        <v>1276.826349216697</v>
       </c>
       <c r="AD6" t="n">
-        <v>789698.3922081814</v>
+        <v>1031644.80115318</v>
       </c>
       <c r="AE6" t="n">
-        <v>1080500.179253483</v>
+        <v>1411541.929894265</v>
       </c>
       <c r="AF6" t="n">
         <v>3.423914182032425e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.15625</v>
       </c>
       <c r="AH6" t="n">
-        <v>977378.758637056</v>
+        <v>1276826.349216697</v>
       </c>
     </row>
     <row r="7">
@@ -6232,28 +6232,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>768.7631909249041</v>
+        <v>1010.675434451122</v>
       </c>
       <c r="AB7" t="n">
-        <v>1051.855713261806</v>
+        <v>1382.850717269341</v>
       </c>
       <c r="AC7" t="n">
-        <v>951.4680802768645</v>
+        <v>1250.873385656325</v>
       </c>
       <c r="AD7" t="n">
-        <v>768763.1909249041</v>
+        <v>1010675.434451122</v>
       </c>
       <c r="AE7" t="n">
-        <v>1051855.713261806</v>
+        <v>1382850.717269341</v>
       </c>
       <c r="AF7" t="n">
         <v>3.471197434507719e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.47916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>951468.0802768645</v>
+        <v>1250873.385656325</v>
       </c>
     </row>
     <row r="8">
@@ -6338,28 +6338,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>761.5917830194926</v>
+        <v>1003.50402654571</v>
       </c>
       <c r="AB8" t="n">
-        <v>1042.043476585435</v>
+        <v>1373.038480592969</v>
       </c>
       <c r="AC8" t="n">
-        <v>942.5923096973252</v>
+        <v>1241.997615076786</v>
       </c>
       <c r="AD8" t="n">
-        <v>761591.7830194926</v>
+        <v>1003504.02654571</v>
       </c>
       <c r="AE8" t="n">
-        <v>1042043.476585435</v>
+        <v>1373038.480592969</v>
       </c>
       <c r="AF8" t="n">
         <v>3.490519600442532e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.19270833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>942592.3096973251</v>
+        <v>1241997.615076786</v>
       </c>
     </row>
     <row r="9">
@@ -6444,28 +6444,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>739.426976335774</v>
+        <v>981.4065396696963</v>
       </c>
       <c r="AB9" t="n">
-        <v>1011.716610238513</v>
+        <v>1342.803724176888</v>
       </c>
       <c r="AC9" t="n">
-        <v>915.1597969105291</v>
+        <v>1214.648421378309</v>
       </c>
       <c r="AD9" t="n">
-        <v>739426.9763357741</v>
+        <v>981406.5396696962</v>
       </c>
       <c r="AE9" t="n">
-        <v>1011716.610238513</v>
+        <v>1342803.724176888</v>
       </c>
       <c r="AF9" t="n">
         <v>3.529955283818021e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.64583333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>915159.796910529</v>
+        <v>1214648.421378309</v>
       </c>
     </row>
     <row r="10">
@@ -6550,28 +6550,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>731.8004529977976</v>
+        <v>973.6785311052345</v>
       </c>
       <c r="AB10" t="n">
-        <v>1001.28166454903</v>
+        <v>1332.229921923316</v>
       </c>
       <c r="AC10" t="n">
-        <v>905.7207477921123</v>
+        <v>1205.083767971393</v>
       </c>
       <c r="AD10" t="n">
-        <v>731800.4529977976</v>
+        <v>973678.5311052345</v>
       </c>
       <c r="AE10" t="n">
-        <v>1001281.66454903</v>
+        <v>1332229.921923316</v>
       </c>
       <c r="AF10" t="n">
         <v>3.547694746741109e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.41145833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>905720.7477921123</v>
+        <v>1205083.767971393</v>
       </c>
     </row>
     <row r="11">
@@ -6656,28 +6656,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>733.1947557571209</v>
+        <v>975.0728338645579</v>
       </c>
       <c r="AB11" t="n">
-        <v>1003.189411096632</v>
+        <v>1334.137668470919</v>
       </c>
       <c r="AC11" t="n">
-        <v>907.4464216867506</v>
+        <v>1206.809441866031</v>
       </c>
       <c r="AD11" t="n">
-        <v>733194.7557571209</v>
+        <v>975072.8338645579</v>
       </c>
       <c r="AE11" t="n">
-        <v>1003189.411096632</v>
+        <v>1334137.668470919</v>
       </c>
       <c r="AF11" t="n">
         <v>3.546441773523493e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>48.4375</v>
       </c>
       <c r="AH11" t="n">
-        <v>907446.4216867506</v>
+        <v>1206809.441866031</v>
       </c>
     </row>
   </sheetData>
@@ -6953,28 +6953,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>758.1319769568906</v>
+        <v>1020.051300250453</v>
       </c>
       <c r="AB2" t="n">
-        <v>1037.309617294712</v>
+        <v>1395.679190489991</v>
       </c>
       <c r="AC2" t="n">
-        <v>938.3102432932956</v>
+        <v>1262.477527397672</v>
       </c>
       <c r="AD2" t="n">
-        <v>758131.9769568907</v>
+        <v>1020051.300250452</v>
       </c>
       <c r="AE2" t="n">
-        <v>1037309.617294712</v>
+        <v>1395679.190489991</v>
       </c>
       <c r="AF2" t="n">
         <v>4.391343040233738e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.58333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>938310.2432932956</v>
+        <v>1262477.527397672</v>
       </c>
     </row>
     <row r="3">
@@ -7059,28 +7059,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>662.6123621705893</v>
+        <v>896.3979204372672</v>
       </c>
       <c r="AB3" t="n">
-        <v>906.6154663161011</v>
+        <v>1226.491181027483</v>
       </c>
       <c r="AC3" t="n">
-        <v>820.0893586536904</v>
+        <v>1109.436584101403</v>
       </c>
       <c r="AD3" t="n">
-        <v>662612.3621705894</v>
+        <v>896397.9204372672</v>
       </c>
       <c r="AE3" t="n">
-        <v>906615.4663161011</v>
+        <v>1226491.181027483</v>
       </c>
       <c r="AF3" t="n">
         <v>4.860502834735107e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.32291666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>820089.3586536904</v>
+        <v>1109436.584101403</v>
       </c>
     </row>
     <row r="4">
@@ -7165,28 +7165,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>639.4745273805745</v>
+        <v>873.2259202284714</v>
       </c>
       <c r="AB4" t="n">
-        <v>874.9572599871741</v>
+        <v>1194.786228065308</v>
       </c>
       <c r="AC4" t="n">
-        <v>791.4525671042247</v>
+        <v>1080.757507351757</v>
       </c>
       <c r="AD4" t="n">
-        <v>639474.5273805745</v>
+        <v>873225.9202284714</v>
       </c>
       <c r="AE4" t="n">
-        <v>874957.2599871741</v>
+        <v>1194786.228065308</v>
       </c>
       <c r="AF4" t="n">
         <v>4.959360519509381e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.33333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>791452.5671042247</v>
+        <v>1080757.507351757</v>
       </c>
     </row>
   </sheetData>
@@ -7462,28 +7462,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>895.8624632912835</v>
+        <v>1180.238081919165</v>
       </c>
       <c r="AB2" t="n">
-        <v>1225.758544937646</v>
+        <v>1614.853812111171</v>
       </c>
       <c r="AC2" t="n">
-        <v>1108.773869771718</v>
+        <v>1460.73443074484</v>
       </c>
       <c r="AD2" t="n">
-        <v>895862.4632912835</v>
+        <v>1180238.081919165</v>
       </c>
       <c r="AE2" t="n">
-        <v>1225758.544937646</v>
+        <v>1614853.81211117</v>
       </c>
       <c r="AF2" t="n">
         <v>3.514342271776261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>60</v>
+        <v>59.0625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1108773.869771719</v>
+        <v>1460734.43074484</v>
       </c>
     </row>
     <row r="3">
@@ -7568,28 +7568,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>749.6937326888857</v>
+        <v>1005.654795320254</v>
       </c>
       <c r="AB3" t="n">
-        <v>1025.764039218164</v>
+        <v>1375.981257315521</v>
       </c>
       <c r="AC3" t="n">
-        <v>927.8665589840524</v>
+        <v>1244.659537319151</v>
       </c>
       <c r="AD3" t="n">
-        <v>749693.7326888856</v>
+        <v>1005654.795320254</v>
       </c>
       <c r="AE3" t="n">
-        <v>1025764.039218164</v>
+        <v>1375981.257315521</v>
       </c>
       <c r="AF3" t="n">
         <v>4.017006088819925e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>52</v>
+        <v>51.66666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>927866.5589840524</v>
+        <v>1244659.537319151</v>
       </c>
     </row>
     <row r="4">
@@ -7674,28 +7674,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>706.6823063476908</v>
+        <v>953.1607988505801</v>
       </c>
       <c r="AB4" t="n">
-        <v>966.9139081679317</v>
+        <v>1304.156655474035</v>
       </c>
       <c r="AC4" t="n">
-        <v>874.6330018445768</v>
+        <v>1179.689774670954</v>
       </c>
       <c r="AD4" t="n">
-        <v>706682.3063476908</v>
+        <v>953160.7988505801</v>
       </c>
       <c r="AE4" t="n">
-        <v>966913.9081679317</v>
+        <v>1304156.655474035</v>
       </c>
       <c r="AF4" t="n">
         <v>4.185118678440143e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.609375</v>
       </c>
       <c r="AH4" t="n">
-        <v>874633.0018445768</v>
+        <v>1179689.774670954</v>
       </c>
     </row>
     <row r="5">
@@ -7780,28 +7780,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>678.791360771738</v>
+        <v>915.7199633384441</v>
       </c>
       <c r="AB5" t="n">
-        <v>928.7522859692359</v>
+        <v>1252.928452553244</v>
       </c>
       <c r="AC5" t="n">
-        <v>840.1134713083517</v>
+        <v>1133.35071953769</v>
       </c>
       <c r="AD5" t="n">
-        <v>678791.360771738</v>
+        <v>915719.9633384441</v>
       </c>
       <c r="AE5" t="n">
-        <v>928752.2859692359</v>
+        <v>1252928.452553244</v>
       </c>
       <c r="AF5" t="n">
         <v>4.286910891311181e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.41145833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>840113.4713083517</v>
+        <v>1133350.71953769</v>
       </c>
     </row>
     <row r="6">
@@ -7886,28 +7886,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>673.2940972584021</v>
+        <v>900.8084605341908</v>
       </c>
       <c r="AB6" t="n">
-        <v>921.2306875081398</v>
+        <v>1232.52587656739</v>
       </c>
       <c r="AC6" t="n">
-        <v>833.3097236477528</v>
+        <v>1114.89533676873</v>
       </c>
       <c r="AD6" t="n">
-        <v>673294.097258402</v>
+        <v>900808.4605341908</v>
       </c>
       <c r="AE6" t="n">
-        <v>921230.6875081398</v>
+        <v>1232525.87656739</v>
       </c>
       <c r="AF6" t="n">
         <v>4.31361440839168e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.125</v>
       </c>
       <c r="AH6" t="n">
-        <v>833309.7236477528</v>
+        <v>1114895.33676873</v>
       </c>
     </row>
     <row r="7">
@@ -7992,28 +7992,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>674.744776447477</v>
+        <v>902.2591397232658</v>
       </c>
       <c r="AB7" t="n">
-        <v>923.2155707740811</v>
+        <v>1234.510759833331</v>
       </c>
       <c r="AC7" t="n">
-        <v>835.1051724405938</v>
+        <v>1116.690785561571</v>
       </c>
       <c r="AD7" t="n">
-        <v>674744.7764474769</v>
+        <v>902259.1397232658</v>
       </c>
       <c r="AE7" t="n">
-        <v>923215.5707740812</v>
+        <v>1234510.759833331</v>
       </c>
       <c r="AF7" t="n">
         <v>4.312498440513689e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.125</v>
       </c>
       <c r="AH7" t="n">
-        <v>835105.1724405938</v>
+        <v>1116690.785561571</v>
       </c>
     </row>
   </sheetData>
@@ -8289,28 +8289,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>666.898525118568</v>
+        <v>916.6137604427902</v>
       </c>
       <c r="AB2" t="n">
-        <v>912.4799835536896</v>
+        <v>1254.151385182956</v>
       </c>
       <c r="AC2" t="n">
-        <v>825.3941745970252</v>
+        <v>1134.456937193618</v>
       </c>
       <c r="AD2" t="n">
-        <v>666898.5251185681</v>
+        <v>916613.7604427902</v>
       </c>
       <c r="AE2" t="n">
-        <v>912479.9835536897</v>
+        <v>1254151.385182956</v>
       </c>
       <c r="AF2" t="n">
         <v>5.317604049849835e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>52</v>
+        <v>51.640625</v>
       </c>
       <c r="AH2" t="n">
-        <v>825394.1745970252</v>
+        <v>1134456.937193618</v>
       </c>
     </row>
     <row r="3">
@@ -8395,28 +8395,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>613.1823341087029</v>
+        <v>844.4292484693516</v>
       </c>
       <c r="AB3" t="n">
-        <v>838.9831212228961</v>
+        <v>1155.385351344983</v>
       </c>
       <c r="AC3" t="n">
-        <v>758.9117496535883</v>
+        <v>1045.116995006143</v>
       </c>
       <c r="AD3" t="n">
-        <v>613182.3341087028</v>
+        <v>844429.2484693516</v>
       </c>
       <c r="AE3" t="n">
-        <v>838983.1212228962</v>
+        <v>1155385.351344983</v>
       </c>
       <c r="AF3" t="n">
         <v>5.627030642096099e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.80208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>758911.7496535884</v>
+        <v>1045116.995006143</v>
       </c>
     </row>
   </sheetData>
@@ -8692,28 +8692,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1246.74053716145</v>
+        <v>1596.160485092728</v>
       </c>
       <c r="AB2" t="n">
-        <v>1705.845405254927</v>
+        <v>2183.937193334646</v>
       </c>
       <c r="AC2" t="n">
-        <v>1543.04191394646</v>
+        <v>1975.505292777889</v>
       </c>
       <c r="AD2" t="n">
-        <v>1246740.53716145</v>
+        <v>1596160.485092728</v>
       </c>
       <c r="AE2" t="n">
-        <v>1705845.405254927</v>
+        <v>2183937.193334646</v>
       </c>
       <c r="AF2" t="n">
         <v>2.356988298905625e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>72</v>
+        <v>71.09375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1543041.91394646</v>
+        <v>1975505.292777889</v>
       </c>
     </row>
     <row r="3">
@@ -8798,28 +8798,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>954.5768801598254</v>
+        <v>1245.674925060581</v>
       </c>
       <c r="AB3" t="n">
-        <v>1306.094200394443</v>
+        <v>1704.387387767031</v>
       </c>
       <c r="AC3" t="n">
-        <v>1181.44240302352</v>
+        <v>1541.723047601268</v>
       </c>
       <c r="AD3" t="n">
-        <v>954576.8801598253</v>
+        <v>1245674.925060581</v>
       </c>
       <c r="AE3" t="n">
-        <v>1306094.200394443</v>
+        <v>1704387.387767031</v>
       </c>
       <c r="AF3" t="n">
         <v>2.917630521918398e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>58</v>
+        <v>57.44791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1181442.40302352</v>
+        <v>1541723.047601268</v>
       </c>
     </row>
     <row r="4">
@@ -8904,28 +8904,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>871.4531141725828</v>
+        <v>1143.133301675685</v>
       </c>
       <c r="AB4" t="n">
-        <v>1192.360596608957</v>
+        <v>1564.085414834668</v>
       </c>
       <c r="AC4" t="n">
-        <v>1078.563374757206</v>
+        <v>1414.811298050513</v>
       </c>
       <c r="AD4" t="n">
-        <v>871453.1141725827</v>
+        <v>1143133.301675685</v>
       </c>
       <c r="AE4" t="n">
-        <v>1192360.596608957</v>
+        <v>1564085.414834667</v>
       </c>
       <c r="AF4" t="n">
         <v>3.134821465750825e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>54</v>
+        <v>53.46354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1078563.374757206</v>
+        <v>1414811.298050513</v>
       </c>
     </row>
     <row r="5">
@@ -9010,28 +9010,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>825.5417721299724</v>
+        <v>1077.872433072983</v>
       </c>
       <c r="AB5" t="n">
-        <v>1129.542672960797</v>
+        <v>1474.792615306125</v>
       </c>
       <c r="AC5" t="n">
-        <v>1021.740705576516</v>
+        <v>1334.040477985743</v>
       </c>
       <c r="AD5" t="n">
-        <v>825541.7721299723</v>
+        <v>1077872.433072983</v>
       </c>
       <c r="AE5" t="n">
-        <v>1129542.672960797</v>
+        <v>1474792.615306125</v>
       </c>
       <c r="AF5" t="n">
         <v>3.265972619389488e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>52</v>
+        <v>51.30208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1021740.705576516</v>
+        <v>1334040.477985743</v>
       </c>
     </row>
     <row r="6">
@@ -9116,28 +9116,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>807.1924266331947</v>
+        <v>1059.59040738391</v>
       </c>
       <c r="AB6" t="n">
-        <v>1104.436288936115</v>
+        <v>1449.778341212284</v>
       </c>
       <c r="AC6" t="n">
-        <v>999.0304396061188</v>
+        <v>1311.413531103665</v>
       </c>
       <c r="AD6" t="n">
-        <v>807192.4266331947</v>
+        <v>1059590.40738391</v>
       </c>
       <c r="AE6" t="n">
-        <v>1104436.288936115</v>
+        <v>1449778.341212285</v>
       </c>
       <c r="AF6" t="n">
         <v>3.305613988693421e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>51</v>
+        <v>50.703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>999030.4396061187</v>
+        <v>1311413.531103665</v>
       </c>
     </row>
     <row r="7">
@@ -9222,19 +9222,19 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>785.7411226134971</v>
+        <v>1038.104937945432</v>
       </c>
       <c r="AB7" t="n">
-        <v>1075.085668411623</v>
+        <v>1420.380974054544</v>
       </c>
       <c r="AC7" t="n">
-        <v>972.4810011106291</v>
+        <v>1284.821807407995</v>
       </c>
       <c r="AD7" t="n">
-        <v>785741.1226134971</v>
+        <v>1038104.937945432</v>
       </c>
       <c r="AE7" t="n">
-        <v>1075085.668411623</v>
+        <v>1420380.974054544</v>
       </c>
       <c r="AF7" t="n">
         <v>3.351948056711006e-06</v>
@@ -9243,7 +9243,7 @@
         <v>50</v>
       </c>
       <c r="AH7" t="n">
-        <v>972481.0011106291</v>
+        <v>1284821.807407995</v>
       </c>
     </row>
     <row r="8">
@@ -9328,28 +9328,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>774.8144041607236</v>
+        <v>1017.436136404908</v>
       </c>
       <c r="AB8" t="n">
-        <v>1060.135250171742</v>
+        <v>1392.10100794363</v>
       </c>
       <c r="AC8" t="n">
-        <v>958.9574298045184</v>
+        <v>1259.240841571525</v>
       </c>
       <c r="AD8" t="n">
-        <v>774814.4041607236</v>
+        <v>1017436.136404908</v>
       </c>
       <c r="AE8" t="n">
-        <v>1060135.250171742</v>
+        <v>1392101.00794363</v>
       </c>
       <c r="AF8" t="n">
         <v>3.396222832816698e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.34895833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>958957.4298045184</v>
+        <v>1259240.841571525</v>
       </c>
     </row>
     <row r="9">
@@ -9434,28 +9434,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>756.6449366832841</v>
+        <v>1008.974586596438</v>
       </c>
       <c r="AB9" t="n">
-        <v>1035.274983188776</v>
+        <v>1380.52354219845</v>
       </c>
       <c r="AC9" t="n">
-        <v>936.4697918108036</v>
+        <v>1248.76831290799</v>
       </c>
       <c r="AD9" t="n">
-        <v>756644.9366832841</v>
+        <v>1008974.586596438</v>
       </c>
       <c r="AE9" t="n">
-        <v>1035274.983188776</v>
+        <v>1380523.54219845</v>
       </c>
       <c r="AF9" t="n">
         <v>3.42093433575941e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.984375</v>
       </c>
       <c r="AH9" t="n">
-        <v>936469.7918108036</v>
+        <v>1248768.31290799</v>
       </c>
     </row>
     <row r="10">
@@ -9540,28 +9540,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>748.4455369162678</v>
+        <v>991.1345889681561</v>
       </c>
       <c r="AB10" t="n">
-        <v>1024.056202695557</v>
+        <v>1356.114070398287</v>
       </c>
       <c r="AC10" t="n">
-        <v>926.3217159821995</v>
+        <v>1226.688446837525</v>
       </c>
       <c r="AD10" t="n">
-        <v>748445.5369162678</v>
+        <v>991134.5889681561</v>
       </c>
       <c r="AE10" t="n">
-        <v>1024056.202695557</v>
+        <v>1356114.070398287</v>
       </c>
       <c r="AF10" t="n">
         <v>3.43895313998847e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.72395833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>926321.7159821995</v>
+        <v>1226688.446837525</v>
       </c>
     </row>
     <row r="11">
@@ -9646,28 +9646,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>741.0420205637151</v>
+        <v>983.6295873891182</v>
       </c>
       <c r="AB11" t="n">
-        <v>1013.926385001905</v>
+        <v>1345.845396140545</v>
       </c>
       <c r="AC11" t="n">
-        <v>917.158673871941</v>
+        <v>1217.399800438768</v>
       </c>
       <c r="AD11" t="n">
-        <v>741042.0205637151</v>
+        <v>983629.5873891183</v>
       </c>
       <c r="AE11" t="n">
-        <v>1013926.385001905</v>
+        <v>1345845.396140545</v>
       </c>
       <c r="AF11" t="n">
         <v>3.457744178684491e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>48.46354166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>917158.673871941</v>
+        <v>1217399.800438768</v>
       </c>
     </row>
     <row r="12">
@@ -9752,28 +9752,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>741.7236768985442</v>
+        <v>984.3112437239473</v>
       </c>
       <c r="AB12" t="n">
-        <v>1014.859057271773</v>
+        <v>1346.778068410413</v>
       </c>
       <c r="AC12" t="n">
-        <v>918.0023332093868</v>
+        <v>1218.243459776214</v>
       </c>
       <c r="AD12" t="n">
-        <v>741723.6768985442</v>
+        <v>984311.2437239473</v>
       </c>
       <c r="AE12" t="n">
-        <v>1014859.057271773</v>
+        <v>1346778.068410413</v>
       </c>
       <c r="AF12" t="n">
         <v>3.457165002834271e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.46354166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>918002.3332093868</v>
+        <v>1218243.459776214</v>
       </c>
     </row>
   </sheetData>
@@ -10049,28 +10049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>622.8987663070743</v>
+        <v>852.5694055775823</v>
       </c>
       <c r="AB2" t="n">
-        <v>852.2775724154433</v>
+        <v>1166.523073418851</v>
       </c>
       <c r="AC2" t="n">
-        <v>770.9373970831981</v>
+        <v>1055.191748517172</v>
       </c>
       <c r="AD2" t="n">
-        <v>622898.7663070743</v>
+        <v>852569.4055775823</v>
       </c>
       <c r="AE2" t="n">
-        <v>852277.5724154433</v>
+        <v>1166523.073418851</v>
       </c>
       <c r="AF2" t="n">
         <v>5.999315895010475e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.078125</v>
       </c>
       <c r="AH2" t="n">
-        <v>770937.3970831981</v>
+        <v>1055191.748517172</v>
       </c>
     </row>
     <row r="3">
@@ -10155,28 +10155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>608.2729363331135</v>
+        <v>837.9094101848408</v>
       </c>
       <c r="AB3" t="n">
-        <v>832.2658665989908</v>
+        <v>1146.464620969151</v>
       </c>
       <c r="AC3" t="n">
-        <v>752.8355803832626</v>
+        <v>1037.047646617056</v>
       </c>
       <c r="AD3" t="n">
-        <v>608272.9363331136</v>
+        <v>837909.4101848408</v>
       </c>
       <c r="AE3" t="n">
-        <v>832265.8665989907</v>
+        <v>1146464.620969151</v>
       </c>
       <c r="AF3" t="n">
         <v>6.080526470319325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>50</v>
+        <v>49.40104166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>752835.5803832626</v>
+        <v>1037047.646617056</v>
       </c>
     </row>
   </sheetData>
@@ -10452,28 +10452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1028.133825390865</v>
+        <v>1344.484139411874</v>
       </c>
       <c r="AB2" t="n">
-        <v>1406.738057962947</v>
+        <v>1839.582513997354</v>
       </c>
       <c r="AC2" t="n">
-        <v>1272.480952080227</v>
+        <v>1664.01534073172</v>
       </c>
       <c r="AD2" t="n">
-        <v>1028133.825390865</v>
+        <v>1344484.139411874</v>
       </c>
       <c r="AE2" t="n">
-        <v>1406738.057962947</v>
+        <v>1839582.513997354</v>
       </c>
       <c r="AF2" t="n">
         <v>2.924003083249467e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>64</v>
+        <v>63.85416666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1272480.952080227</v>
+        <v>1664015.34073172</v>
       </c>
     </row>
     <row r="3">
@@ -10558,28 +10558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>842.4819784116468</v>
+        <v>1110.822753706986</v>
       </c>
       <c r="AB3" t="n">
-        <v>1152.72101054454</v>
+        <v>1519.87669766312</v>
       </c>
       <c r="AC3" t="n">
-        <v>1042.706935152268</v>
+        <v>1374.821798798493</v>
       </c>
       <c r="AD3" t="n">
-        <v>842481.9784116468</v>
+        <v>1110822.753706986</v>
       </c>
       <c r="AE3" t="n">
-        <v>1152721.01054454</v>
+        <v>1519876.69766312</v>
       </c>
       <c r="AF3" t="n">
         <v>3.447465390621787e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.16666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1042706.935152268</v>
+        <v>1374821.798798493</v>
       </c>
     </row>
     <row r="4">
@@ -10664,28 +10664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>780.5296188587852</v>
+        <v>1029.727672005719</v>
       </c>
       <c r="AB4" t="n">
-        <v>1067.955059059107</v>
+        <v>1408.91882921694</v>
       </c>
       <c r="AC4" t="n">
-        <v>966.0309271068444</v>
+        <v>1274.453593586471</v>
       </c>
       <c r="AD4" t="n">
-        <v>780529.6188587851</v>
+        <v>1029727.672005719</v>
       </c>
       <c r="AE4" t="n">
-        <v>1067955.059059107</v>
+        <v>1408918.82921694</v>
       </c>
       <c r="AF4" t="n">
         <v>3.652906419474074e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.11979166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>966030.9271068444</v>
+        <v>1274453.593586471</v>
       </c>
     </row>
     <row r="5">
@@ -10770,28 +10770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>744.2950503861214</v>
+        <v>993.5262579219791</v>
       </c>
       <c r="AB5" t="n">
-        <v>1018.377323918468</v>
+        <v>1359.386457373895</v>
       </c>
       <c r="AC5" t="n">
-        <v>921.1848214252395</v>
+        <v>1229.648521793005</v>
       </c>
       <c r="AD5" t="n">
-        <v>744295.0503861214</v>
+        <v>993526.2579219791</v>
       </c>
       <c r="AE5" t="n">
-        <v>1018377.323918468</v>
+        <v>1359386.457373895</v>
       </c>
       <c r="AF5" t="n">
         <v>3.747774999289633e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.81770833333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>921184.8214252396</v>
+        <v>1229648.521793005</v>
       </c>
     </row>
     <row r="6">
@@ -10876,28 +10876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>719.9296610074548</v>
+        <v>969.1267031245318</v>
       </c>
       <c r="AB6" t="n">
-        <v>985.0395232454613</v>
+        <v>1326.00191006764</v>
       </c>
       <c r="AC6" t="n">
-        <v>891.0287336585675</v>
+        <v>1199.450148826154</v>
       </c>
       <c r="AD6" t="n">
-        <v>719929.6610074549</v>
+        <v>969126.7031245318</v>
       </c>
       <c r="AE6" t="n">
-        <v>985039.5232454613</v>
+        <v>1326001.91006764</v>
       </c>
       <c r="AF6" t="n">
         <v>3.814606077436346e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.95833333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>891028.7336585675</v>
+        <v>1199450.148826153</v>
       </c>
     </row>
     <row r="7">
@@ -10982,28 +10982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>709.9184503727869</v>
+        <v>949.5953795438322</v>
       </c>
       <c r="AB7" t="n">
-        <v>971.3417431916663</v>
+        <v>1299.278291483344</v>
       </c>
       <c r="AC7" t="n">
-        <v>878.6382505081517</v>
+        <v>1175.276994892708</v>
       </c>
       <c r="AD7" t="n">
-        <v>709918.4503727868</v>
+        <v>949595.3795438323</v>
       </c>
       <c r="AE7" t="n">
-        <v>971341.7431916663</v>
+        <v>1299278.291483344</v>
       </c>
       <c r="AF7" t="n">
         <v>3.846300644540259e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.54166666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>878638.2505081517</v>
+        <v>1175276.994892708</v>
       </c>
     </row>
     <row r="8">
@@ -11088,28 +11088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>704.4154510178953</v>
+        <v>943.9908949624554</v>
       </c>
       <c r="AB8" t="n">
-        <v>963.8122966991062</v>
+        <v>1291.609988426695</v>
       </c>
       <c r="AC8" t="n">
-        <v>871.8274038211971</v>
+        <v>1168.340543917255</v>
       </c>
       <c r="AD8" t="n">
-        <v>704415.4510178952</v>
+        <v>943990.8949624554</v>
       </c>
       <c r="AE8" t="n">
-        <v>963812.2966991062</v>
+        <v>1291609.988426695</v>
       </c>
       <c r="AF8" t="n">
         <v>3.870896202270219e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.22916666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>871827.4038211971</v>
+        <v>1168340.543917255</v>
       </c>
     </row>
   </sheetData>
@@ -11385,28 +11385,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1134.562368111337</v>
+        <v>1472.180717217338</v>
       </c>
       <c r="AB2" t="n">
-        <v>1552.358285409024</v>
+        <v>2014.302605326204</v>
       </c>
       <c r="AC2" t="n">
-        <v>1404.203389398123</v>
+        <v>1822.060391765333</v>
       </c>
       <c r="AD2" t="n">
-        <v>1134562.368111337</v>
+        <v>1472180.717217338</v>
       </c>
       <c r="AE2" t="n">
-        <v>1552358.285409024</v>
+        <v>2014302.605326204</v>
       </c>
       <c r="AF2" t="n">
         <v>2.617185803979261e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>68</v>
+        <v>67.34375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1404203.389398123</v>
+        <v>1822060.391765333</v>
       </c>
     </row>
     <row r="3">
@@ -11491,28 +11491,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>893.6790165543945</v>
+        <v>1173.492308286301</v>
       </c>
       <c r="AB3" t="n">
-        <v>1222.771056785362</v>
+        <v>1605.623947024158</v>
       </c>
       <c r="AC3" t="n">
-        <v>1106.071503295723</v>
+        <v>1452.385451027534</v>
       </c>
       <c r="AD3" t="n">
-        <v>893679.0165543945</v>
+        <v>1173492.308286301</v>
       </c>
       <c r="AE3" t="n">
-        <v>1222771.056785362</v>
+        <v>1605623.947024158</v>
       </c>
       <c r="AF3" t="n">
         <v>3.159683132939195e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>56</v>
+        <v>55.78125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1106071.503295723</v>
+        <v>1452385.451027534</v>
       </c>
     </row>
     <row r="4">
@@ -11597,28 +11597,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>826.1154690086515</v>
+        <v>1086.559260065994</v>
       </c>
       <c r="AB4" t="n">
-        <v>1130.327630339926</v>
+        <v>1486.678315233722</v>
       </c>
       <c r="AC4" t="n">
-        <v>1022.450747725076</v>
+        <v>1344.791823393935</v>
       </c>
       <c r="AD4" t="n">
-        <v>826115.4690086516</v>
+        <v>1086559.260065994</v>
       </c>
       <c r="AE4" t="n">
-        <v>1130327.630339926</v>
+        <v>1486678.315233722</v>
       </c>
       <c r="AF4" t="n">
         <v>3.372282522865977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>53</v>
+        <v>52.265625</v>
       </c>
       <c r="AH4" t="n">
-        <v>1022450.747725076</v>
+        <v>1344791.823393935</v>
       </c>
     </row>
     <row r="5">
@@ -11703,28 +11703,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>788.5406224334426</v>
+        <v>1039.434808283841</v>
       </c>
       <c r="AB5" t="n">
-        <v>1078.916067570488</v>
+        <v>1422.200561321294</v>
       </c>
       <c r="AC5" t="n">
-        <v>975.9458323497712</v>
+        <v>1286.467735819813</v>
       </c>
       <c r="AD5" t="n">
-        <v>788540.6224334426</v>
+        <v>1039434.808283841</v>
       </c>
       <c r="AE5" t="n">
-        <v>1078916.067570488</v>
+        <v>1422200.561321294</v>
       </c>
       <c r="AF5" t="n">
         <v>3.470629200218289e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.78125</v>
       </c>
       <c r="AH5" t="n">
-        <v>975945.8323497712</v>
+        <v>1286467.735819814</v>
       </c>
     </row>
     <row r="6">
@@ -11809,28 +11809,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>764.6590239652372</v>
+        <v>1015.519044396854</v>
       </c>
       <c r="AB6" t="n">
-        <v>1046.240210964523</v>
+        <v>1389.477958082081</v>
       </c>
       <c r="AC6" t="n">
-        <v>946.3885136374263</v>
+        <v>1256.868131907289</v>
       </c>
       <c r="AD6" t="n">
-        <v>764659.0239652372</v>
+        <v>1015519.044396854</v>
       </c>
       <c r="AE6" t="n">
-        <v>1046240.210964523</v>
+        <v>1389477.958082081</v>
       </c>
       <c r="AF6" t="n">
         <v>3.539668161608074e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.79166666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>946388.5136374263</v>
+        <v>1256868.131907289</v>
       </c>
     </row>
     <row r="7">
@@ -11915,28 +11915,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>752.4461566777667</v>
+        <v>993.6219322870302</v>
       </c>
       <c r="AB7" t="n">
-        <v>1029.530027148127</v>
+        <v>1359.517363261013</v>
       </c>
       <c r="AC7" t="n">
-        <v>931.2731263115772</v>
+        <v>1229.766934205984</v>
       </c>
       <c r="AD7" t="n">
-        <v>752446.1566777667</v>
+        <v>993621.9322870302</v>
       </c>
       <c r="AE7" t="n">
-        <v>1029530.027148127</v>
+        <v>1359517.363261013</v>
       </c>
       <c r="AF7" t="n">
         <v>3.588536916631041e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>50</v>
+        <v>49.11458333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>931273.1263115773</v>
+        <v>1229766.934205984</v>
       </c>
     </row>
     <row r="8">
@@ -12021,28 +12021,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>733.4025541583439</v>
+        <v>974.6456495753119</v>
       </c>
       <c r="AB8" t="n">
-        <v>1003.473730036604</v>
+        <v>1333.553176080331</v>
       </c>
       <c r="AC8" t="n">
-        <v>907.7036056261356</v>
+        <v>1206.280732608862</v>
       </c>
       <c r="AD8" t="n">
-        <v>733402.5541583439</v>
+        <v>974645.6495753119</v>
       </c>
       <c r="AE8" t="n">
-        <v>1003473.730036604</v>
+        <v>1333553.176080331</v>
       </c>
       <c r="AF8" t="n">
         <v>3.615204907599252e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.75</v>
       </c>
       <c r="AH8" t="n">
-        <v>907703.6056261356</v>
+        <v>1206280.732608862</v>
       </c>
     </row>
     <row r="9">
@@ -12127,28 +12127,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>724.5057312452674</v>
+        <v>965.64734143575</v>
       </c>
       <c r="AB9" t="n">
-        <v>991.3007044268072</v>
+        <v>1321.241293906445</v>
       </c>
       <c r="AC9" t="n">
-        <v>896.6923564955888</v>
+        <v>1195.143879189816</v>
       </c>
       <c r="AD9" t="n">
-        <v>724505.7312452674</v>
+        <v>965647.34143575</v>
       </c>
       <c r="AE9" t="n">
-        <v>991300.7044268072</v>
+        <v>1321241.293906445</v>
       </c>
       <c r="AF9" t="n">
         <v>3.635036687684749e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.48958333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>896692.3564955888</v>
+        <v>1195143.879189816</v>
       </c>
     </row>
     <row r="10">
@@ -12233,28 +12233,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>724.5599013943283</v>
+        <v>965.701511584811</v>
       </c>
       <c r="AB10" t="n">
-        <v>991.3748224145708</v>
+        <v>1321.315411894208</v>
       </c>
       <c r="AC10" t="n">
-        <v>896.7594007666255</v>
+        <v>1195.210923460853</v>
       </c>
       <c r="AD10" t="n">
-        <v>724559.9013943283</v>
+        <v>965701.511584811</v>
       </c>
       <c r="AE10" t="n">
-        <v>991374.8224145707</v>
+        <v>1321315.411894209</v>
       </c>
       <c r="AF10" t="n">
         <v>3.642143639592521e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>49</v>
+        <v>48.38541666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>896759.4007666255</v>
+        <v>1195210.923460853</v>
       </c>
     </row>
   </sheetData>
@@ -12530,28 +12530,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1365.458126069095</v>
+        <v>1736.344369959915</v>
       </c>
       <c r="AB2" t="n">
-        <v>1868.28004784875</v>
+        <v>2375.742969086453</v>
       </c>
       <c r="AC2" t="n">
-        <v>1689.97402222958</v>
+        <v>2149.005394493041</v>
       </c>
       <c r="AD2" t="n">
-        <v>1365458.126069095</v>
+        <v>1736344.369959916</v>
       </c>
       <c r="AE2" t="n">
-        <v>1868280.04784875</v>
+        <v>2375742.969086453</v>
       </c>
       <c r="AF2" t="n">
         <v>2.133166171612705e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>76</v>
+        <v>75.10416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1689974.02222958</v>
+        <v>2149005.394493041</v>
       </c>
     </row>
     <row r="3">
@@ -12636,28 +12636,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1017.8101312575</v>
+        <v>1310.59369533415</v>
       </c>
       <c r="AB3" t="n">
-        <v>1392.612724200435</v>
+        <v>1793.212113269341</v>
       </c>
       <c r="AC3" t="n">
-        <v>1259.703720346979</v>
+        <v>1622.070465967922</v>
       </c>
       <c r="AD3" t="n">
-        <v>1017810.1312575</v>
+        <v>1310593.69533415</v>
       </c>
       <c r="AE3" t="n">
-        <v>1392612.724200435</v>
+        <v>1793212.113269341</v>
       </c>
       <c r="AF3" t="n">
         <v>2.705144386482233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>60</v>
+        <v>59.24479166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1259703.720346979</v>
+        <v>1622070.465967922</v>
       </c>
     </row>
     <row r="4">
@@ -12742,28 +12742,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>917.1326882114894</v>
+        <v>1190.457902142302</v>
       </c>
       <c r="AB4" t="n">
-        <v>1254.861405049567</v>
+        <v>1628.837021007115</v>
       </c>
       <c r="AC4" t="n">
-        <v>1135.09919376068</v>
+        <v>1473.383101809312</v>
       </c>
       <c r="AD4" t="n">
-        <v>917132.6882114894</v>
+        <v>1190457.902142302</v>
       </c>
       <c r="AE4" t="n">
-        <v>1254861.405049567</v>
+        <v>1628837.021007115</v>
       </c>
       <c r="AF4" t="n">
         <v>2.929050230276362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.71354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1135099.19376068</v>
+        <v>1473383.101809312</v>
       </c>
     </row>
     <row r="5">
@@ -12848,28 +12848,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>872.6086133463094</v>
+        <v>1136.170992300351</v>
       </c>
       <c r="AB5" t="n">
-        <v>1193.941601555476</v>
+        <v>1554.559275991923</v>
       </c>
       <c r="AC5" t="n">
-        <v>1079.993490810583</v>
+        <v>1406.1943205289</v>
       </c>
       <c r="AD5" t="n">
-        <v>872608.6133463094</v>
+        <v>1136170.992300351</v>
       </c>
       <c r="AE5" t="n">
-        <v>1193941.601555476</v>
+        <v>1554559.275991923</v>
       </c>
       <c r="AF5" t="n">
         <v>3.046079335771396e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.60416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>1079993.490810583</v>
+        <v>1406194.3205289</v>
       </c>
     </row>
     <row r="6">
@@ -12954,28 +12954,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>848.2749320787008</v>
+        <v>1111.701660387476</v>
       </c>
       <c r="AB6" t="n">
-        <v>1160.647185318882</v>
+        <v>1521.079256557992</v>
       </c>
       <c r="AC6" t="n">
-        <v>1049.876646930603</v>
+        <v>1375.909587160241</v>
       </c>
       <c r="AD6" t="n">
-        <v>848274.9320787007</v>
+        <v>1111701.660387476</v>
       </c>
       <c r="AE6" t="n">
-        <v>1160647.185318882</v>
+        <v>1521079.256557992</v>
       </c>
       <c r="AF6" t="n">
         <v>3.111792839803309e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.484375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1049876.646930603</v>
+        <v>1375909.587160241</v>
       </c>
     </row>
     <row r="7">
@@ -13060,28 +13060,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>826.843773098015</v>
+        <v>1080.643317075285</v>
       </c>
       <c r="AB7" t="n">
-        <v>1131.324128125502</v>
+        <v>1478.583861040849</v>
       </c>
       <c r="AC7" t="n">
-        <v>1023.35214116059</v>
+        <v>1337.469892548593</v>
       </c>
       <c r="AD7" t="n">
-        <v>826843.773098015</v>
+        <v>1080643.317075285</v>
       </c>
       <c r="AE7" t="n">
-        <v>1131324.128125502</v>
+        <v>1478583.861040849</v>
       </c>
       <c r="AF7" t="n">
         <v>3.158432199406483e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.72916666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1023352.14116059</v>
+        <v>1337469.892548593</v>
       </c>
     </row>
     <row r="8">
@@ -13166,28 +13166,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>816.6826864912426</v>
+        <v>1060.686241102818</v>
       </c>
       <c r="AB8" t="n">
-        <v>1117.421281154613</v>
+        <v>1451.277709251267</v>
       </c>
       <c r="AC8" t="n">
-        <v>1010.776162391834</v>
+        <v>1312.769801561383</v>
       </c>
       <c r="AD8" t="n">
-        <v>816682.6864912426</v>
+        <v>1060686.241102818</v>
       </c>
       <c r="AE8" t="n">
-        <v>1117421.281154613</v>
+        <v>1451277.709251266</v>
       </c>
       <c r="AF8" t="n">
         <v>3.196088252278702e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>51</v>
+        <v>50.13020833333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>1010776.162391834</v>
+        <v>1312769.801561383</v>
       </c>
     </row>
     <row r="9">
@@ -13272,28 +13272,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>800.4929012723582</v>
+        <v>1054.258279830848</v>
       </c>
       <c r="AB9" t="n">
-        <v>1095.269702775219</v>
+        <v>1442.482689057319</v>
       </c>
       <c r="AC9" t="n">
-        <v>990.7386995630343</v>
+        <v>1304.814165750857</v>
       </c>
       <c r="AD9" t="n">
-        <v>800492.9012723581</v>
+        <v>1054258.279830848</v>
       </c>
       <c r="AE9" t="n">
-        <v>1095269.702775219</v>
+        <v>1442482.689057319</v>
       </c>
       <c r="AF9" t="n">
         <v>3.217069811150315e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.81770833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>990738.6995630343</v>
+        <v>1304814.165750857</v>
       </c>
     </row>
     <row r="10">
@@ -13378,28 +13378,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>790.0998914450789</v>
+        <v>1034.069280637873</v>
       </c>
       <c r="AB10" t="n">
-        <v>1081.049528222302</v>
+        <v>1414.859209685709</v>
       </c>
       <c r="AC10" t="n">
-        <v>977.8756785113073</v>
+        <v>1279.827032480677</v>
       </c>
       <c r="AD10" t="n">
-        <v>790099.8914450789</v>
+        <v>1034069.280637873</v>
       </c>
       <c r="AE10" t="n">
-        <v>1081049.528222302</v>
+        <v>1414859.209685709</v>
       </c>
       <c r="AF10" t="n">
         <v>3.245004203313693e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.375</v>
       </c>
       <c r="AH10" t="n">
-        <v>977875.6785113073</v>
+        <v>1279827.032480676</v>
       </c>
     </row>
     <row r="11">
@@ -13484,28 +13484,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>783.1478896241783</v>
+        <v>1027.117278816973</v>
       </c>
       <c r="AB11" t="n">
-        <v>1071.537492630272</v>
+        <v>1405.347174093678</v>
       </c>
       <c r="AC11" t="n">
-        <v>969.2714582459542</v>
+        <v>1271.222812215323</v>
       </c>
       <c r="AD11" t="n">
-        <v>783147.8896241783</v>
+        <v>1027117.278816973</v>
       </c>
       <c r="AE11" t="n">
-        <v>1071537.492630272</v>
+        <v>1405347.174093678</v>
       </c>
       <c r="AF11" t="n">
         <v>3.263463052760859e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>50</v>
+        <v>49.08854166666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>969271.4582459542</v>
+        <v>1271222.812215323</v>
       </c>
     </row>
     <row r="12">
@@ -13590,28 +13590,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>764.5520233112164</v>
+        <v>1008.588732311715</v>
       </c>
       <c r="AB12" t="n">
-        <v>1046.093807949156</v>
+        <v>1379.995599343403</v>
       </c>
       <c r="AC12" t="n">
-        <v>946.2560831203682</v>
+        <v>1248.290756178056</v>
       </c>
       <c r="AD12" t="n">
-        <v>764552.0233112164</v>
+        <v>1008588.732311715</v>
       </c>
       <c r="AE12" t="n">
-        <v>1046093.807949156</v>
+        <v>1379995.599343403</v>
       </c>
       <c r="AF12" t="n">
         <v>3.284690729625101e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.77604166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>946256.0831203682</v>
+        <v>1248290.756178056</v>
       </c>
     </row>
     <row r="13">
@@ -13696,28 +13696,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>759.2049930998058</v>
+        <v>1003.241702100305</v>
       </c>
       <c r="AB13" t="n">
-        <v>1038.77776531958</v>
+        <v>1372.679556713827</v>
       </c>
       <c r="AC13" t="n">
-        <v>939.6382733312287</v>
+        <v>1241.672946388917</v>
       </c>
       <c r="AD13" t="n">
-        <v>759204.9930998059</v>
+        <v>1003241.702100305</v>
       </c>
       <c r="AE13" t="n">
-        <v>1038777.76531958</v>
+        <v>1372679.556713827</v>
       </c>
       <c r="AF13" t="n">
         <v>3.294412390333941e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.64583333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>939638.2733312286</v>
+        <v>1241672.946388917</v>
       </c>
     </row>
     <row r="14">
@@ -13802,28 +13802,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>760.7964478010426</v>
+        <v>1004.833156801542</v>
       </c>
       <c r="AB14" t="n">
-        <v>1040.955263851838</v>
+        <v>1374.857055246085</v>
       </c>
       <c r="AC14" t="n">
-        <v>941.6079544597065</v>
+        <v>1243.642627517395</v>
       </c>
       <c r="AD14" t="n">
-        <v>760796.4478010426</v>
+        <v>1004833.156801542</v>
       </c>
       <c r="AE14" t="n">
-        <v>1040955.263851838</v>
+        <v>1374857.055246085</v>
       </c>
       <c r="AF14" t="n">
         <v>3.292628034887383e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>49</v>
+        <v>48.671875</v>
       </c>
       <c r="AH14" t="n">
-        <v>941607.9544597066</v>
+        <v>1243642.627517395</v>
       </c>
     </row>
   </sheetData>
@@ -14099,28 +14099,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>935.9568729028323</v>
+        <v>1231.034709149439</v>
       </c>
       <c r="AB2" t="n">
-        <v>1280.61748500868</v>
+        <v>1684.355998476665</v>
       </c>
       <c r="AC2" t="n">
-        <v>1158.39714959738</v>
+        <v>1523.603425990542</v>
       </c>
       <c r="AD2" t="n">
-        <v>935956.8729028323</v>
+        <v>1231034.709149439</v>
       </c>
       <c r="AE2" t="n">
-        <v>1280617.48500868</v>
+        <v>1684355.998476665</v>
       </c>
       <c r="AF2" t="n">
         <v>3.294889821308893e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>61</v>
+        <v>60.625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1158397.14959738</v>
+        <v>1523603.425990542</v>
       </c>
     </row>
     <row r="3">
@@ -14205,28 +14205,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>780.982043545787</v>
+        <v>1037.98091183557</v>
       </c>
       <c r="AB3" t="n">
-        <v>1068.574086475431</v>
+        <v>1420.211276059386</v>
       </c>
       <c r="AC3" t="n">
-        <v>966.5908754153652</v>
+        <v>1284.668305151322</v>
       </c>
       <c r="AD3" t="n">
-        <v>780982.043545787</v>
+        <v>1037980.91183557</v>
       </c>
       <c r="AE3" t="n">
-        <v>1068574.086475431</v>
+        <v>1420211.276059386</v>
       </c>
       <c r="AF3" t="n">
         <v>3.801607133835178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>53</v>
+        <v>52.55208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>966590.8754153652</v>
+        <v>1284668.305151322</v>
       </c>
     </row>
     <row r="4">
@@ -14311,28 +14311,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>720.216544895929</v>
+        <v>967.6615057777252</v>
       </c>
       <c r="AB4" t="n">
-        <v>985.4320504380955</v>
+        <v>1323.997162417795</v>
       </c>
       <c r="AC4" t="n">
-        <v>891.3837986068523</v>
+        <v>1197.636731478328</v>
       </c>
       <c r="AD4" t="n">
-        <v>720216.5448959291</v>
+        <v>967661.5057777253</v>
       </c>
       <c r="AE4" t="n">
-        <v>985432.0504380956</v>
+        <v>1323997.162417795</v>
       </c>
       <c r="AF4" t="n">
         <v>4.02474377660523e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>50</v>
+        <v>49.63541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>891383.7986068523</v>
+        <v>1197636.731478328</v>
       </c>
     </row>
     <row r="5">
@@ -14417,28 +14417,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>698.1178941139614</v>
+        <v>945.5286895769768</v>
       </c>
       <c r="AB5" t="n">
-        <v>955.1957015145416</v>
+        <v>1293.714066860993</v>
       </c>
       <c r="AC5" t="n">
-        <v>864.03316438758</v>
+        <v>1170.243812058876</v>
       </c>
       <c r="AD5" t="n">
-        <v>698117.8941139614</v>
+        <v>945528.6895769768</v>
       </c>
       <c r="AE5" t="n">
-        <v>955195.7015145416</v>
+        <v>1293714.066860993</v>
       </c>
       <c r="AF5" t="n">
         <v>4.088179322693519e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.85416666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>864033.16438758</v>
+        <v>1170243.812058876</v>
       </c>
     </row>
     <row r="6">
@@ -14523,28 +14523,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>684.3645891461532</v>
+        <v>922.2224882310387</v>
       </c>
       <c r="AB6" t="n">
-        <v>936.3778229045937</v>
+        <v>1261.825493982444</v>
       </c>
       <c r="AC6" t="n">
-        <v>847.011237701107</v>
+        <v>1141.398639819962</v>
       </c>
       <c r="AD6" t="n">
-        <v>684364.5891461532</v>
+        <v>922222.4882310387</v>
       </c>
       <c r="AE6" t="n">
-        <v>936377.8229045937</v>
+        <v>1261825.493982444</v>
       </c>
       <c r="AF6" t="n">
         <v>4.143407367655511e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.203125</v>
       </c>
       <c r="AH6" t="n">
-        <v>847011.237701107</v>
+        <v>1141398.639819962</v>
       </c>
     </row>
     <row r="7">
@@ -14629,28 +14629,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>685.3325433121969</v>
+        <v>923.1904423970825</v>
       </c>
       <c r="AB7" t="n">
-        <v>937.7022204976985</v>
+        <v>1263.149891575549</v>
       </c>
       <c r="AC7" t="n">
-        <v>848.2092366467298</v>
+        <v>1142.596638765585</v>
       </c>
       <c r="AD7" t="n">
-        <v>685332.5433121969</v>
+        <v>923190.4423970825</v>
       </c>
       <c r="AE7" t="n">
-        <v>937702.2204976985</v>
+        <v>1263149.891575549</v>
       </c>
       <c r="AF7" t="n">
         <v>4.138191385631322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.28125</v>
       </c>
       <c r="AH7" t="n">
-        <v>848209.2366467298</v>
+        <v>1142596.638765585</v>
       </c>
     </row>
   </sheetData>
@@ -14926,28 +14926,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>797.0675284940666</v>
+        <v>1069.626265347263</v>
       </c>
       <c r="AB2" t="n">
-        <v>1090.58295662318</v>
+        <v>1463.509844828549</v>
       </c>
       <c r="AC2" t="n">
-        <v>986.4992498858554</v>
+        <v>1323.83451928708</v>
       </c>
       <c r="AD2" t="n">
-        <v>797067.5284940666</v>
+        <v>1069626.265347263</v>
       </c>
       <c r="AE2" t="n">
-        <v>1090582.95662318</v>
+        <v>1463509.844828549</v>
       </c>
       <c r="AF2" t="n">
         <v>4.056059969324547e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>56</v>
+        <v>55.98958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>986499.2498858555</v>
+        <v>1323834.51928708</v>
       </c>
     </row>
     <row r="3">
@@ -15032,28 +15032,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>696.2798507539018</v>
+        <v>940.5684676934528</v>
       </c>
       <c r="AB3" t="n">
-        <v>952.6808095005581</v>
+        <v>1286.927272450411</v>
       </c>
       <c r="AC3" t="n">
-        <v>861.758290137738</v>
+        <v>1164.104739781514</v>
       </c>
       <c r="AD3" t="n">
-        <v>696279.8507539018</v>
+        <v>940568.4676934528</v>
       </c>
       <c r="AE3" t="n">
-        <v>952680.8095005581</v>
+        <v>1286927.272450411</v>
       </c>
       <c r="AF3" t="n">
         <v>4.527132993028354e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.18229166666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>861758.290137738</v>
+        <v>1164104.739781514</v>
       </c>
     </row>
     <row r="4">
@@ -15138,28 +15138,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>654.2079911892372</v>
+        <v>889.0956747601416</v>
       </c>
       <c r="AB4" t="n">
-        <v>895.1162351647355</v>
+        <v>1216.499926339696</v>
       </c>
       <c r="AC4" t="n">
-        <v>809.6875979841388</v>
+        <v>1100.398880738205</v>
       </c>
       <c r="AD4" t="n">
-        <v>654207.9911892372</v>
+        <v>889095.6747601416</v>
       </c>
       <c r="AE4" t="n">
-        <v>895116.2351647355</v>
+        <v>1216499.926339696</v>
       </c>
       <c r="AF4" t="n">
         <v>4.694594612267628e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.38541666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>809687.5979841389</v>
+        <v>1100398.880738205</v>
       </c>
     </row>
     <row r="5">
@@ -15244,28 +15244,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>651.6175147152949</v>
+        <v>886.5051982861991</v>
       </c>
       <c r="AB5" t="n">
-        <v>891.5718309693311</v>
+        <v>1212.955522144292</v>
       </c>
       <c r="AC5" t="n">
-        <v>806.4814667505414</v>
+        <v>1097.192749504607</v>
       </c>
       <c r="AD5" t="n">
-        <v>651617.5147152948</v>
+        <v>886505.198286199</v>
       </c>
       <c r="AE5" t="n">
-        <v>891571.8309693311</v>
+        <v>1212955.522144292</v>
       </c>
       <c r="AF5" t="n">
         <v>4.710119699884601e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.22916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>806481.4667505414</v>
+        <v>1097192.749504607</v>
       </c>
     </row>
   </sheetData>
@@ -27866,28 +27866,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>717.8236746200755</v>
+        <v>968.9833096702025</v>
       </c>
       <c r="AB2" t="n">
-        <v>982.1580197606867</v>
+        <v>1325.805712817355</v>
       </c>
       <c r="AC2" t="n">
-        <v>888.4222368221643</v>
+        <v>1199.272676366071</v>
       </c>
       <c r="AD2" t="n">
-        <v>717823.6746200755</v>
+        <v>968983.3096702026</v>
       </c>
       <c r="AE2" t="n">
-        <v>982158.0197606867</v>
+        <v>1325805.712817355</v>
       </c>
       <c r="AF2" t="n">
         <v>4.802553818753805e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>54</v>
+        <v>53.125</v>
       </c>
       <c r="AH2" t="n">
-        <v>888422.2368221644</v>
+        <v>1199272.676366071</v>
       </c>
     </row>
     <row r="3">
@@ -27972,28 +27972,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>625.462263817617</v>
+        <v>857.9757986136586</v>
       </c>
       <c r="AB3" t="n">
-        <v>855.7850628028963</v>
+        <v>1173.920338884038</v>
       </c>
       <c r="AC3" t="n">
-        <v>774.1101375108664</v>
+        <v>1061.883029348488</v>
       </c>
       <c r="AD3" t="n">
-        <v>625462.263817617</v>
+        <v>857975.7986136586</v>
       </c>
       <c r="AE3" t="n">
-        <v>855785.0628028963</v>
+        <v>1173920.338884038</v>
       </c>
       <c r="AF3" t="n">
         <v>5.29084120987124e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>49</v>
+        <v>48.203125</v>
       </c>
       <c r="AH3" t="n">
-        <v>774110.1375108664</v>
+        <v>1061883.029348488</v>
       </c>
     </row>
     <row r="4">
@@ -28078,28 +28078,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>627.4644991116398</v>
+        <v>859.9780339076814</v>
       </c>
       <c r="AB4" t="n">
-        <v>858.5246094645651</v>
+        <v>1176.659885545707</v>
       </c>
       <c r="AC4" t="n">
-        <v>776.5882256841234</v>
+        <v>1064.361117521746</v>
       </c>
       <c r="AD4" t="n">
-        <v>627464.4991116398</v>
+        <v>859978.0339076814</v>
       </c>
       <c r="AE4" t="n">
-        <v>858524.6094645651</v>
+        <v>1176659.885545707</v>
       </c>
       <c r="AF4" t="n">
         <v>5.264492301504019e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.46354166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>776588.2256841233</v>
+        <v>1064361.117521746</v>
       </c>
     </row>
   </sheetData>
@@ -28375,28 +28375,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>598.3952687114178</v>
+        <v>835.3202198230642</v>
       </c>
       <c r="AB2" t="n">
-        <v>818.7508059870466</v>
+        <v>1142.921976489151</v>
       </c>
       <c r="AC2" t="n">
-        <v>740.6103781876155</v>
+        <v>1033.843107154095</v>
       </c>
       <c r="AD2" t="n">
-        <v>598395.2687114178</v>
+        <v>835320.2198230643</v>
       </c>
       <c r="AE2" t="n">
-        <v>818750.8059870467</v>
+        <v>1142921.976489151</v>
       </c>
       <c r="AF2" t="n">
         <v>6.696809650161791e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.36458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>740610.3781876155</v>
+        <v>1033843.107154095</v>
       </c>
     </row>
   </sheetData>
@@ -28672,28 +28672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1081.56263301896</v>
+        <v>1408.589098716783</v>
       </c>
       <c r="AB2" t="n">
-        <v>1479.841709672343</v>
+        <v>1927.293747429536</v>
       </c>
       <c r="AC2" t="n">
-        <v>1338.607693872098</v>
+        <v>1743.355537148624</v>
       </c>
       <c r="AD2" t="n">
-        <v>1081562.63301896</v>
+        <v>1408589.098716783</v>
       </c>
       <c r="AE2" t="n">
-        <v>1479841.709672343</v>
+        <v>1927293.747429536</v>
       </c>
       <c r="AF2" t="n">
         <v>2.760569534918645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>66</v>
+        <v>65.65104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1338607.693872098</v>
+        <v>1743355.537148624</v>
       </c>
     </row>
     <row r="3">
@@ -28778,28 +28778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>862.7879941820644</v>
+        <v>1141.678118500021</v>
       </c>
       <c r="AB3" t="n">
-        <v>1180.504597159816</v>
+        <v>1562.094369015572</v>
       </c>
       <c r="AC3" t="n">
-        <v>1067.838895255491</v>
+        <v>1413.010274849942</v>
       </c>
       <c r="AD3" t="n">
-        <v>862787.9941820644</v>
+        <v>1141678.118500021</v>
       </c>
       <c r="AE3" t="n">
-        <v>1180504.597159816</v>
+        <v>1562094.369015572</v>
       </c>
       <c r="AF3" t="n">
         <v>3.29875045090528e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>55</v>
+        <v>54.94791666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1067838.895255491</v>
+        <v>1413010.274849942</v>
       </c>
     </row>
     <row r="4">
@@ -28884,28 +28884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>798.5017583587032</v>
+        <v>1058.185177711006</v>
       </c>
       <c r="AB4" t="n">
-        <v>1092.545333197731</v>
+        <v>1447.855643979459</v>
       </c>
       <c r="AC4" t="n">
-        <v>988.2743399943447</v>
+        <v>1309.674333396218</v>
       </c>
       <c r="AD4" t="n">
-        <v>798501.7583587032</v>
+        <v>1058185.177711006</v>
       </c>
       <c r="AE4" t="n">
-        <v>1092545.333197731</v>
+        <v>1447855.643979459</v>
       </c>
       <c r="AF4" t="n">
         <v>3.505379073634405e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>52</v>
+        <v>51.69270833333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>988274.3399943447</v>
+        <v>1309674.333396218</v>
       </c>
     </row>
     <row r="5">
@@ -28990,28 +28990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>771.6174775147573</v>
+        <v>1021.613141867138</v>
       </c>
       <c r="AB5" t="n">
-        <v>1055.761074096281</v>
+        <v>1397.81617109353</v>
       </c>
       <c r="AC5" t="n">
-        <v>955.0007189545049</v>
+        <v>1264.41055757168</v>
       </c>
       <c r="AD5" t="n">
-        <v>771617.4775147573</v>
+        <v>1021613.141867138</v>
       </c>
       <c r="AE5" t="n">
-        <v>1055761.074096281</v>
+        <v>1397816.17109353</v>
       </c>
       <c r="AF5" t="n">
         <v>3.599263213769666e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>51</v>
+        <v>50.36458333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>955000.7189545049</v>
+        <v>1264410.55757168</v>
       </c>
     </row>
     <row r="6">
@@ -29096,28 +29096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>747.9049085541592</v>
+        <v>988.3143031331037</v>
       </c>
       <c r="AB6" t="n">
-        <v>1023.31649111968</v>
+        <v>1352.255230896538</v>
       </c>
       <c r="AC6" t="n">
-        <v>925.6526014409325</v>
+        <v>1223.197889561909</v>
       </c>
       <c r="AD6" t="n">
-        <v>747904.9085541592</v>
+        <v>988314.3031331038</v>
       </c>
       <c r="AE6" t="n">
-        <v>1023316.49111968</v>
+        <v>1352255.230896539</v>
       </c>
       <c r="AF6" t="n">
         <v>3.667605856922242e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>50</v>
+        <v>49.42708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>925652.6014409325</v>
+        <v>1223197.889561909</v>
       </c>
     </row>
     <row r="7">
@@ -29202,28 +29202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>725.9641568258172</v>
+        <v>966.4408712124663</v>
       </c>
       <c r="AB7" t="n">
-        <v>993.2961866473109</v>
+        <v>1322.327036355011</v>
       </c>
       <c r="AC7" t="n">
-        <v>898.4973926936448</v>
+        <v>1196.12599990294</v>
       </c>
       <c r="AD7" t="n">
-        <v>725964.1568258172</v>
+        <v>966440.8712124663</v>
       </c>
       <c r="AE7" t="n">
-        <v>993296.186647311</v>
+        <v>1322327.036355011</v>
       </c>
       <c r="AF7" t="n">
         <v>3.71736653905472e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>898497.3926936447</v>
+        <v>1196125.99990294</v>
       </c>
     </row>
     <row r="8">
@@ -29308,28 +29308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>715.8110560016173</v>
+        <v>956.1862851617811</v>
       </c>
       <c r="AB8" t="n">
-        <v>979.4042661764452</v>
+        <v>1308.296259320056</v>
       </c>
       <c r="AC8" t="n">
-        <v>885.9312976150857</v>
+        <v>1183.434300535882</v>
       </c>
       <c r="AD8" t="n">
-        <v>715811.0560016173</v>
+        <v>956186.2851617811</v>
       </c>
       <c r="AE8" t="n">
-        <v>979404.2661764452</v>
+        <v>1308296.259320056</v>
       </c>
       <c r="AF8" t="n">
         <v>3.742351273160397e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.4375</v>
       </c>
       <c r="AH8" t="n">
-        <v>885931.2976150856</v>
+        <v>1183434.300535882</v>
       </c>
     </row>
     <row r="9">
@@ -29414,28 +29414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>714.0299717244462</v>
+        <v>954.4052008846099</v>
       </c>
       <c r="AB9" t="n">
-        <v>976.9673080925271</v>
+        <v>1305.859301236138</v>
       </c>
       <c r="AC9" t="n">
-        <v>883.7269193904044</v>
+        <v>1181.229922311201</v>
       </c>
       <c r="AD9" t="n">
-        <v>714029.9717244463</v>
+        <v>954405.2008846099</v>
       </c>
       <c r="AE9" t="n">
-        <v>976967.3080925271</v>
+        <v>1305859.301236138</v>
       </c>
       <c r="AF9" t="n">
         <v>3.748266878728593e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>49</v>
+        <v>48.359375</v>
       </c>
       <c r="AH9" t="n">
-        <v>883726.9193904044</v>
+        <v>1181229.922311201</v>
       </c>
     </row>
   </sheetData>
@@ -29711,28 +29711,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1306.320961567073</v>
+        <v>1666.463641680105</v>
       </c>
       <c r="AB2" t="n">
-        <v>1787.365970429515</v>
+        <v>2280.129073733866</v>
       </c>
       <c r="AC2" t="n">
-        <v>1616.782270795616</v>
+        <v>2062.516755117959</v>
       </c>
       <c r="AD2" t="n">
-        <v>1306320.961567073</v>
+        <v>1666463.641680104</v>
       </c>
       <c r="AE2" t="n">
-        <v>1787365.970429515</v>
+        <v>2280129.073733866</v>
       </c>
       <c r="AF2" t="n">
         <v>2.238494821109038e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>74</v>
+        <v>73.15104166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1616782.270795616</v>
+        <v>2062516.755117959</v>
       </c>
     </row>
     <row r="3">
@@ -29817,28 +29817,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>986.1096575324808</v>
+        <v>1278.063870676012</v>
       </c>
       <c r="AB3" t="n">
-        <v>1349.238737523666</v>
+        <v>1748.703372057498</v>
       </c>
       <c r="AC3" t="n">
-        <v>1220.469286082868</v>
+        <v>1581.809576548927</v>
       </c>
       <c r="AD3" t="n">
-        <v>986109.6575324808</v>
+        <v>1278063.870676012</v>
       </c>
       <c r="AE3" t="n">
-        <v>1349238.737523667</v>
+        <v>1748703.372057498</v>
       </c>
       <c r="AF3" t="n">
         <v>2.807677218733993e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>59</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1220469.286082868</v>
+        <v>1581809.576548927</v>
       </c>
     </row>
     <row r="4">
@@ -29923,28 +29923,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>901.5718330177197</v>
+        <v>1174.053388575332</v>
       </c>
       <c r="AB4" t="n">
-        <v>1233.570356476971</v>
+        <v>1606.391641828724</v>
       </c>
       <c r="AC4" t="n">
-        <v>1115.840132981677</v>
+        <v>1453.07987811742</v>
       </c>
       <c r="AD4" t="n">
-        <v>901571.8330177197</v>
+        <v>1174053.388575332</v>
       </c>
       <c r="AE4" t="n">
-        <v>1233570.356476971</v>
+        <v>1606391.641828724</v>
       </c>
       <c r="AF4" t="n">
         <v>3.017465361312366e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>55</v>
+        <v>54.27083333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>1115840.132981678</v>
+        <v>1453079.87811742</v>
       </c>
     </row>
     <row r="5">
@@ -30029,28 +30029,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>855.6473133776676</v>
+        <v>1108.724542186921</v>
       </c>
       <c r="AB5" t="n">
-        <v>1170.734402658637</v>
+        <v>1517.005832094808</v>
       </c>
       <c r="AC5" t="n">
-        <v>1059.00115440495</v>
+        <v>1372.224924610736</v>
       </c>
       <c r="AD5" t="n">
-        <v>855647.3133776676</v>
+        <v>1108724.542186921</v>
       </c>
       <c r="AE5" t="n">
-        <v>1170734.402658636</v>
+        <v>1517005.832094808</v>
       </c>
       <c r="AF5" t="n">
         <v>3.143929376517733e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>53</v>
+        <v>52.08333333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1059001.15440495</v>
+        <v>1372224.924610736</v>
       </c>
     </row>
     <row r="6">
@@ -30135,28 +30135,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>832.7268882252836</v>
+        <v>1085.769951615756</v>
       </c>
       <c r="AB6" t="n">
-        <v>1139.373665787352</v>
+        <v>1485.598348590275</v>
       </c>
       <c r="AC6" t="n">
-        <v>1030.63344224559</v>
+        <v>1343.814927251196</v>
       </c>
       <c r="AD6" t="n">
-        <v>832726.8882252836</v>
+        <v>1085769.951615756</v>
       </c>
       <c r="AE6" t="n">
-        <v>1139373.665787352</v>
+        <v>1485598.348590275</v>
       </c>
       <c r="AF6" t="n">
         <v>3.205683559974556e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>52</v>
+        <v>51.09375</v>
       </c>
       <c r="AH6" t="n">
-        <v>1030633.44224559</v>
+        <v>1343814.927251196</v>
       </c>
     </row>
     <row r="7">
@@ -30241,28 +30241,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>811.2048961405377</v>
+        <v>1064.21379411223</v>
       </c>
       <c r="AB7" t="n">
-        <v>1109.926326733724</v>
+        <v>1456.104262903399</v>
       </c>
       <c r="AC7" t="n">
-        <v>1003.99651590164</v>
+        <v>1317.135715707066</v>
       </c>
       <c r="AD7" t="n">
-        <v>811204.8961405377</v>
+        <v>1064213.79411223</v>
       </c>
       <c r="AE7" t="n">
-        <v>1109926.326733724</v>
+        <v>1456104.262903399</v>
       </c>
       <c r="AF7" t="n">
         <v>3.252470843571171e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>51</v>
+        <v>50.33854166666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1003996.51590164</v>
+        <v>1317135.715707066</v>
       </c>
     </row>
     <row r="8">
@@ -30347,28 +30347,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>791.2205017417439</v>
+        <v>1044.29671952114</v>
       </c>
       <c r="AB8" t="n">
-        <v>1082.582796668037</v>
+        <v>1428.852842768554</v>
       </c>
       <c r="AC8" t="n">
-        <v>979.2626139685365</v>
+        <v>1292.485132862282</v>
       </c>
       <c r="AD8" t="n">
-        <v>791220.5017417439</v>
+        <v>1044296.71952114</v>
       </c>
       <c r="AE8" t="n">
-        <v>1082582.796668037</v>
+        <v>1428852.842768554</v>
       </c>
       <c r="AF8" t="n">
         <v>3.291208702032886e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>50</v>
+        <v>49.765625</v>
       </c>
       <c r="AH8" t="n">
-        <v>979262.6139685365</v>
+        <v>1292485.132862282</v>
       </c>
     </row>
     <row r="9">
@@ -30453,28 +30453,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>782.0787951743391</v>
+        <v>1025.385529771852</v>
       </c>
       <c r="AB9" t="n">
-        <v>1070.074710438883</v>
+        <v>1402.977718650767</v>
       </c>
       <c r="AC9" t="n">
-        <v>967.9482819338841</v>
+        <v>1269.079494274333</v>
       </c>
       <c r="AD9" t="n">
-        <v>782078.7951743391</v>
+        <v>1025385.529771852</v>
       </c>
       <c r="AE9" t="n">
-        <v>1070074.710438883</v>
+        <v>1402977.718650767</v>
       </c>
       <c r="AF9" t="n">
         <v>3.319004373201842e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>50</v>
+        <v>49.34895833333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>967948.2819338841</v>
+        <v>1269079.494274333</v>
       </c>
     </row>
     <row r="10">
@@ -30559,28 +30559,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>774.5470750869829</v>
+        <v>1017.853809684496</v>
       </c>
       <c r="AB10" t="n">
-        <v>1059.769478739323</v>
+        <v>1392.672486951207</v>
       </c>
       <c r="AC10" t="n">
-        <v>958.6265670842467</v>
+        <v>1259.757779424695</v>
       </c>
       <c r="AD10" t="n">
-        <v>774547.0750869829</v>
+        <v>1017853.809684496</v>
       </c>
       <c r="AE10" t="n">
-        <v>1059769.478739323</v>
+        <v>1392672.486951208</v>
       </c>
       <c r="AF10" t="n">
         <v>3.339002163771364e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>50</v>
+        <v>49.03645833333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>958626.5670842468</v>
+        <v>1259757.779424695</v>
       </c>
     </row>
     <row r="11">
@@ -30665,28 +30665,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>756.5441085527527</v>
+        <v>999.91816295797</v>
       </c>
       <c r="AB11" t="n">
-        <v>1035.13702569236</v>
+        <v>1368.132143835086</v>
       </c>
       <c r="AC11" t="n">
-        <v>936.3450007842212</v>
+        <v>1237.559532212989</v>
       </c>
       <c r="AD11" t="n">
-        <v>756544.1085527528</v>
+        <v>999918.1629579701</v>
       </c>
       <c r="AE11" t="n">
-        <v>1035137.02569236</v>
+        <v>1368132.143835086</v>
       </c>
       <c r="AF11" t="n">
         <v>3.363213325309935e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>49</v>
+        <v>48.69791666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>936345.0007842211</v>
+        <v>1237559.532212989</v>
       </c>
     </row>
     <row r="12">
@@ -30771,28 +30771,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>751.9954135590733</v>
+        <v>995.3694679642906</v>
       </c>
       <c r="AB12" t="n">
-        <v>1028.913300527748</v>
+        <v>1361.908418670474</v>
       </c>
       <c r="AC12" t="n">
-        <v>930.715259214266</v>
+        <v>1231.929790643034</v>
       </c>
       <c r="AD12" t="n">
-        <v>751995.4135590733</v>
+        <v>995369.4679642906</v>
       </c>
       <c r="AE12" t="n">
-        <v>1028913.300527748</v>
+        <v>1361908.418670474</v>
       </c>
       <c r="AF12" t="n">
         <v>3.368684418956313e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>49</v>
+        <v>48.61979166666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>930715.259214266</v>
+        <v>1231929.790643034</v>
       </c>
     </row>
     <row r="13">
@@ -30877,28 +30877,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>752.716784798474</v>
+        <v>996.0908392036914</v>
       </c>
       <c r="AB13" t="n">
-        <v>1029.900312482149</v>
+        <v>1362.895430624875</v>
       </c>
       <c r="AC13" t="n">
-        <v>931.608072133019</v>
+        <v>1232.822603561787</v>
       </c>
       <c r="AD13" t="n">
-        <v>752716.7847984741</v>
+        <v>996090.8392036915</v>
       </c>
       <c r="AE13" t="n">
-        <v>1029900.312482149</v>
+        <v>1362895.430624875</v>
       </c>
       <c r="AF13" t="n">
         <v>3.368810191224047e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>49</v>
+        <v>48.61979166666666</v>
       </c>
       <c r="AH13" t="n">
-        <v>931608.0721330191</v>
+        <v>1232822.603561787</v>
       </c>
     </row>
   </sheetData>
@@ -31174,28 +31174,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>595.4326139651262</v>
+        <v>848.1608597254241</v>
       </c>
       <c r="AB2" t="n">
-        <v>814.6971710600676</v>
+        <v>1160.491106492612</v>
       </c>
       <c r="AC2" t="n">
-        <v>736.9436164887551</v>
+        <v>1049.735464048454</v>
       </c>
       <c r="AD2" t="n">
-        <v>595432.6139651262</v>
+        <v>848160.8597254241</v>
       </c>
       <c r="AE2" t="n">
-        <v>814697.1710600676</v>
+        <v>1160491.106492612</v>
       </c>
       <c r="AF2" t="n">
         <v>7.496164024744448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>53</v>
+        <v>52.99479166666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>736943.6164887551</v>
+        <v>1049735.464048454</v>
       </c>
     </row>
   </sheetData>
@@ -31471,28 +31471,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>846.5209917483224</v>
+        <v>1129.745896726197</v>
       </c>
       <c r="AB2" t="n">
-        <v>1158.247366780472</v>
+        <v>1545.768176772154</v>
       </c>
       <c r="AC2" t="n">
-        <v>1047.705863705332</v>
+        <v>1398.242231480281</v>
       </c>
       <c r="AD2" t="n">
-        <v>846520.9917483225</v>
+        <v>1129745.896726197</v>
       </c>
       <c r="AE2" t="n">
-        <v>1158247.366780472</v>
+        <v>1545768.176772154</v>
       </c>
       <c r="AF2" t="n">
         <v>3.762815828529953e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>58</v>
+        <v>57.55208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1047705.863705332</v>
+        <v>1398242.231480281</v>
       </c>
     </row>
     <row r="3">
@@ -31577,28 +31577,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>718.3205482588913</v>
+        <v>973.1819642364414</v>
       </c>
       <c r="AB3" t="n">
-        <v>982.8378641938325</v>
+        <v>1331.550497226449</v>
       </c>
       <c r="AC3" t="n">
-        <v>889.0371978567783</v>
+        <v>1204.469186614016</v>
       </c>
       <c r="AD3" t="n">
-        <v>718320.5482588913</v>
+        <v>973181.9642364414</v>
       </c>
       <c r="AE3" t="n">
-        <v>982837.8641938325</v>
+        <v>1331550.497226449</v>
       </c>
       <c r="AF3" t="n">
         <v>4.255115001604571e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>51</v>
+        <v>50.91145833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>889037.1978567783</v>
+        <v>1204469.186614016</v>
       </c>
     </row>
     <row r="4">
@@ -31683,28 +31683,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>675.5900006567247</v>
+        <v>921.0083087737602</v>
       </c>
       <c r="AB4" t="n">
-        <v>924.3720438258343</v>
+        <v>1260.164200083178</v>
       </c>
       <c r="AC4" t="n">
-        <v>836.1512733274077</v>
+        <v>1139.895897478802</v>
       </c>
       <c r="AD4" t="n">
-        <v>675590.0006567247</v>
+        <v>921008.3087737602</v>
       </c>
       <c r="AE4" t="n">
-        <v>924372.0438258343</v>
+        <v>1260164.200083178</v>
       </c>
       <c r="AF4" t="n">
         <v>4.425951714139673e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>49</v>
+        <v>48.93229166666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>836151.2733274077</v>
+        <v>1139895.897478802</v>
       </c>
     </row>
     <row r="5">
@@ -31789,28 +31789,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>662.8654405131596</v>
+        <v>898.8074863807568</v>
       </c>
       <c r="AB5" t="n">
-        <v>906.9617392694342</v>
+        <v>1229.788055453912</v>
       </c>
       <c r="AC5" t="n">
-        <v>820.4025838023547</v>
+        <v>1112.418809459766</v>
       </c>
       <c r="AD5" t="n">
-        <v>662865.4405131596</v>
+        <v>898807.4863807568</v>
       </c>
       <c r="AE5" t="n">
-        <v>906961.7392694342</v>
+        <v>1229788.055453912</v>
       </c>
       <c r="AF5" t="n">
         <v>4.490576897021744e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>49</v>
+        <v>48.22916666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>820402.5838023546</v>
+        <v>1112418.809459766</v>
       </c>
     </row>
     <row r="6">
@@ -31895,28 +31895,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>662.9074696992358</v>
+        <v>889.47473854388</v>
       </c>
       <c r="AB6" t="n">
-        <v>907.0192454560205</v>
+        <v>1217.018578131721</v>
       </c>
       <c r="AC6" t="n">
-        <v>820.4546016792036</v>
+        <v>1100.868033131131</v>
       </c>
       <c r="AD6" t="n">
-        <v>662907.4696992357</v>
+        <v>889474.7385438799</v>
       </c>
       <c r="AE6" t="n">
-        <v>907019.2454560205</v>
+        <v>1217018.578131721</v>
       </c>
       <c r="AF6" t="n">
         <v>4.502137901424071e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.09895833333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>820454.6016792036</v>
+        <v>1100868.033131131</v>
       </c>
     </row>
   </sheetData>
@@ -32192,28 +32192,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>987.2914264748708</v>
+        <v>1292.914110201515</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350.855685926611</v>
+        <v>1769.02212492262</v>
       </c>
       <c r="AC2" t="n">
-        <v>1221.931915199637</v>
+        <v>1600.189136158151</v>
       </c>
       <c r="AD2" t="n">
-        <v>987291.4264748709</v>
+        <v>1292914.110201515</v>
       </c>
       <c r="AE2" t="n">
-        <v>1350855.685926611</v>
+        <v>1769022.12492262</v>
       </c>
       <c r="AF2" t="n">
         <v>3.095861601617077e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>63</v>
+        <v>62.29166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1221931.915199637</v>
+        <v>1600189.136158151</v>
       </c>
     </row>
     <row r="3">
@@ -32298,28 +32298,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>811.0360915537113</v>
+        <v>1068.918200953525</v>
       </c>
       <c r="AB3" t="n">
-        <v>1109.695360850895</v>
+        <v>1462.541039887441</v>
       </c>
       <c r="AC3" t="n">
-        <v>1003.787593078505</v>
+        <v>1322.958175729825</v>
       </c>
       <c r="AD3" t="n">
-        <v>811036.0915537113</v>
+        <v>1068918.200953525</v>
       </c>
       <c r="AE3" t="n">
-        <v>1109695.360850895</v>
+        <v>1462541.039887441</v>
       </c>
       <c r="AF3" t="n">
         <v>3.621096051611534e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>54</v>
+        <v>53.25520833333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1003787.593078505</v>
+        <v>1322958.175729825</v>
       </c>
     </row>
     <row r="4">
@@ -32404,28 +32404,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>752.5205659164973</v>
+        <v>1000.915047174893</v>
       </c>
       <c r="AB4" t="n">
-        <v>1029.631837151262</v>
+        <v>1369.496124800108</v>
       </c>
       <c r="AC4" t="n">
-        <v>931.3652197109045</v>
+        <v>1238.793336749068</v>
       </c>
       <c r="AD4" t="n">
-        <v>752520.5659164973</v>
+        <v>1000915.047174893</v>
       </c>
       <c r="AE4" t="n">
-        <v>1029631.837151262</v>
+        <v>1369496.124800108</v>
       </c>
       <c r="AF4" t="n">
         <v>3.814541114130643e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>51</v>
+        <v>50.57291666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>931365.2197109045</v>
+        <v>1238793.336749068</v>
       </c>
     </row>
     <row r="5">
@@ -32510,28 +32510,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>726.1762960202838</v>
+        <v>964.9485095218531</v>
       </c>
       <c r="AB5" t="n">
-        <v>993.586444852101</v>
+        <v>1320.285121251563</v>
       </c>
       <c r="AC5" t="n">
-        <v>898.7599490627491</v>
+        <v>1194.278962311119</v>
       </c>
       <c r="AD5" t="n">
-        <v>726176.2960202837</v>
+        <v>964948.5095218531</v>
       </c>
       <c r="AE5" t="n">
-        <v>993586.4448521009</v>
+        <v>1320285.121251563</v>
       </c>
       <c r="AF5" t="n">
         <v>3.910523044078869e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>50</v>
+        <v>49.32291666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>898759.9490627492</v>
+        <v>1194278.962311119</v>
       </c>
     </row>
     <row r="6">
@@ -32616,28 +32616,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>702.833829695652</v>
+        <v>941.673363004926</v>
       </c>
       <c r="AB6" t="n">
-        <v>961.6482526298051</v>
+        <v>1288.439038960109</v>
       </c>
       <c r="AC6" t="n">
-        <v>869.8698930806149</v>
+        <v>1165.472225417304</v>
       </c>
       <c r="AD6" t="n">
-        <v>702833.829695652</v>
+        <v>941673.363004926</v>
       </c>
       <c r="AE6" t="n">
-        <v>961648.2526298051</v>
+        <v>1288439.038960109</v>
       </c>
       <c r="AF6" t="n">
         <v>3.968141826100257e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>49</v>
+        <v>48.59375</v>
       </c>
       <c r="AH6" t="n">
-        <v>869869.893080615</v>
+        <v>1165472.225417304</v>
       </c>
     </row>
     <row r="7">
@@ -32722,28 +32722,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>693.8347909726223</v>
+        <v>923.0862219438503</v>
       </c>
       <c r="AB7" t="n">
-        <v>949.3353708393868</v>
+        <v>1263.007292553555</v>
       </c>
       <c r="AC7" t="n">
-        <v>858.7321354470361</v>
+        <v>1142.467649194111</v>
       </c>
       <c r="AD7" t="n">
-        <v>693834.7909726222</v>
+        <v>923086.2219438503</v>
       </c>
       <c r="AE7" t="n">
-        <v>949335.3708393867</v>
+        <v>1263007.292553555</v>
       </c>
       <c r="AF7" t="n">
         <v>4.00406098969971e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>49</v>
+        <v>48.17708333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>858732.135447036</v>
+        <v>1142467.649194111</v>
       </c>
     </row>
     <row r="8">
@@ -32828,28 +32828,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>694.6067949791034</v>
+        <v>923.8582259503315</v>
       </c>
       <c r="AB8" t="n">
-        <v>950.3916607794673</v>
+        <v>1264.063582493636</v>
       </c>
       <c r="AC8" t="n">
-        <v>859.6876145577476</v>
+        <v>1143.423128304823</v>
       </c>
       <c r="AD8" t="n">
-        <v>694606.7949791034</v>
+        <v>923858.2259503315</v>
       </c>
       <c r="AE8" t="n">
-        <v>950391.6607794673</v>
+        <v>1264063.582493636</v>
       </c>
       <c r="AF8" t="n">
         <v>4.007097455076157e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>49</v>
+        <v>48.125</v>
       </c>
       <c r="AH8" t="n">
-        <v>859687.6145577476</v>
+        <v>1143423.128304823</v>
       </c>
     </row>
   </sheetData>
